--- a/data/case1/20/Qlm1_5.xlsx
+++ b/data/case1/20/Qlm1_5.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.2135291778885744</v>
+        <v>-0.28018141678364827</v>
       </c>
       <c r="B1" s="0">
-        <v>0.21316388398386721</v>
+        <v>0.27958946117234973</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.19106304826277576</v>
+        <v>-0.19029597057718384</v>
       </c>
       <c r="B2" s="0">
-        <v>0.18958438977182634</v>
+        <v>0.18884614509850728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.085493548587342261</v>
+        <v>-0.13912870226378615</v>
       </c>
       <c r="B3" s="0">
-        <v>0.085376146584131618</v>
+        <v>0.13869492901214819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.077376146703160842</v>
+        <v>-0.130694929053913</v>
       </c>
       <c r="B4" s="0">
-        <v>0.077141893707279863</v>
+        <v>0.13002019056455083</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.074141893775409251</v>
+        <v>-0.12702019059012937</v>
       </c>
       <c r="B5" s="0">
-        <v>0.073363390313515353</v>
+        <v>0.12470001217433069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.00085452281269837727</v>
+        <v>-0.025398229703078812</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0008177991926938688</v>
+        <v>0.025099479822760173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0091822006463280204</v>
+        <v>-0.015099479883573075</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0091845037793940598</v>
+        <v>0.015037566914913647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.019184503619420035</v>
+        <v>0.00042062892834504595</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.019206909892312218</v>
+        <v>-0.00043736218022294437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.02120690982633322</v>
+        <v>0.0024373621497075781</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.021240807540143791</v>
+        <v>-0.0024451257482187572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027394052477548669</v>
+        <v>0.0044451257178224068</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027380104015657381</v>
+        <v>-0.0044448817055879886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024380104089058108</v>
+        <v>0.0074448816713106325</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024355165639789789</v>
+        <v>-0.0074449082654597376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020855165720242486</v>
+        <v>-0.020872290747329103</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020665366453124001</v>
+        <v>0.020674383703536137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017165366540125682</v>
+        <v>-0.017174383741944688</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017079382434256551</v>
+        <v>0.017084146742273987</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090793825738400002</v>
+        <v>-0.0090841467988322933</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090517086320147655</v>
+        <v>0.0090545676013649157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080517086934195348</v>
+        <v>-0.0080545676311629677</v>
       </c>
       <c r="B15" s="0">
-        <v>0.008033864601175722</v>
+        <v>0.0080354576771677344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060338646748858693</v>
+        <v>-0.0060354577112633478</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060031117747354479</v>
+        <v>0.0060036694823382142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040031118497951823</v>
+        <v>-0.0040036695170186931</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999021196331</v>
+        <v>0.0039999999573980816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016100835791561963</v>
+        <v>-0.08329349061988367</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016090980035496472</v>
+        <v>0.083118341741212021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090980083772518</v>
+        <v>-0.079118341758955157</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015997460410155</v>
+        <v>0.077793799548817599</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080159975127109817</v>
+        <v>-0.073793799574419339</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056878654612973</v>
+        <v>0.073396287208479905</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056879183119065</v>
+        <v>-0.0040058896964687563</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999470294867</v>
+        <v>0.0039999999722963864</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.051618649665995164</v>
+        <v>-0.045717442857855062</v>
       </c>
       <c r="B22" s="0">
-        <v>0.051365044031166818</v>
+        <v>0.045502414836352756</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.046365044114713427</v>
+        <v>-0.040502414864637792</v>
       </c>
       <c r="B23" s="0">
-        <v>0.045880023079289067</v>
+        <v>0.040099736646438622</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099497153772461</v>
+        <v>-0.020099736735226692</v>
       </c>
       <c r="B24" s="0">
-        <v>0.01999999973605604</v>
+        <v>0.019999999910082167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.070508867571419387</v>
+        <v>-0.097301782500631262</v>
       </c>
       <c r="B25" s="0">
-        <v>0.070444830032780459</v>
+        <v>0.097173908832676403</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.067944830110789667</v>
+        <v>-0.094673908865264167</v>
       </c>
       <c r="B26" s="0">
-        <v>0.067863995199648031</v>
+        <v>0.094509464156423917</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.065363995280959042</v>
+        <v>-0.092009464190900392</v>
       </c>
       <c r="B27" s="0">
-        <v>0.064890835715603057</v>
+        <v>0.091037197156875749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.062890835807997369</v>
+        <v>-0.089037197196863538</v>
       </c>
       <c r="B28" s="0">
-        <v>0.062579240698945604</v>
+        <v>0.08837146186919842</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081353191289711191</v>
+        <v>-0.081371461934199196</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081168746033579708</v>
+        <v>0.081178305243771121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021168746801279781</v>
+        <v>-0.021178305517436602</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021021637312018449</v>
+        <v>0.021024757923206572</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021637485635452</v>
+        <v>-0.014024757992981307</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000840695549854</v>
+        <v>0.01400143558917577</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.004000840903833236</v>
+        <v>-0.0040014356709043852</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999859582104</v>
+        <v>0.0039999999414721543</v>
       </c>
     </row>
   </sheetData>
